--- a/Stilling-Test1.xlsx
+++ b/Stilling-Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39587FB2-8C03-42B8-B151-047FEE9C551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86DCEB2-2AA2-4489-8484-4EAB40B2D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,9 +684,7 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
-        <v>12</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3">
         <v>61</v>
       </c>
@@ -701,7 +699,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>SUM(B6:L6)</f>
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">

--- a/Stilling-Test1.xlsx
+++ b/Stilling-Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86DCEB2-2AA2-4489-8484-4EAB40B2D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7458914-9E30-4EAB-84A1-5859742163A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +686,11 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="3">
+        <v>31</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -906,10 +908,14 @@
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20</v>
+      </c>
       <c r="D16" s="4">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -921,7 +927,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">

--- a/Stilling-Test1.xlsx
+++ b/Stilling-Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\holdquizzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7458914-9E30-4EAB-84A1-5859742163A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9873E-FEE3-484B-8290-0964B84B9C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,11 +589,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
